--- a/PREGAME/1. ELICITACIÓN/1.2 Cronograma/G1_MATRIZCRONOGRAMA_V4.0_NRC14765.xlsx
+++ b/PREGAME/1. ELICITACIÓN/1.2 Cronograma/G1_MATRIZCRONOGRAMA_V4.0_NRC14765.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ediso\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\QUINTO SEMESTRE MAYO 23 - SEPTIEMBRE 23\NahirCarrera_14765_G1_MPSW\PREGAME\1. ELICITACIÓN\1.2 Cronograma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA51AEE-70B3-429F-8F25-A775F150D4FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB8277C-8AC6-4729-B0F9-8A7FE78C55EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4D995E78-8260-4C1A-BB58-D91D0A05B7AE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4D995E78-8260-4C1A-BB58-D91D0A05B7AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="38">
   <si>
     <t>CRONOGRAMA GRUPO #1</t>
   </si>
@@ -137,6 +137,9 @@
   <si>
     <t>Pruebas Caja negra y blanca</t>
   </si>
+  <si>
+    <t>|</t>
+  </si>
 </sst>
 </file>
 
@@ -184,7 +187,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,6 +221,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment textRotation="90" wrapText="1"/>
@@ -294,7 +303,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -319,7 +327,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -368,11 +375,42 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="34">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -893,134 +931,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{461EFE71-8FD0-4D14-9DCC-70C0A595F851}">
-  <dimension ref="A1:DJ42"/>
+  <dimension ref="A1:DJ76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="CS17" sqref="CS17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="28" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="AV12" sqref="AV12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.42578125" style="31" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="38.44140625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="8" width="2.140625" style="1" customWidth="1"/>
-    <col min="9" max="106" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="107" max="114" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="2.109375" style="1" customWidth="1"/>
+    <col min="9" max="106" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="107" max="114" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:114" ht="43.15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:114" ht="43.2" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="38"/>
-      <c r="AO1" s="38"/>
-      <c r="AP1" s="38"/>
-      <c r="AQ1" s="38"/>
-      <c r="AR1" s="38"/>
-      <c r="AS1" s="38"/>
-      <c r="AT1" s="38"/>
-      <c r="AU1" s="38"/>
-      <c r="AV1" s="38"/>
-      <c r="AW1" s="38"/>
-      <c r="AX1" s="38"/>
-      <c r="AY1" s="38"/>
-      <c r="AZ1" s="38"/>
-      <c r="BA1" s="38"/>
-      <c r="BB1" s="38"/>
-      <c r="BC1" s="38"/>
-      <c r="BD1" s="38"/>
-      <c r="BE1" s="38"/>
-      <c r="BF1" s="38"/>
-      <c r="BG1" s="38"/>
-      <c r="BH1" s="38"/>
-      <c r="BI1" s="38"/>
-      <c r="BJ1" s="38"/>
-      <c r="BK1" s="38"/>
-      <c r="BL1" s="38"/>
-      <c r="BM1" s="38"/>
-      <c r="BN1" s="38"/>
-      <c r="BO1" s="38"/>
-      <c r="BP1" s="38"/>
-      <c r="BQ1" s="38"/>
-      <c r="BR1" s="38"/>
-      <c r="BS1" s="38"/>
-      <c r="BT1" s="38"/>
-      <c r="BU1" s="38"/>
-      <c r="BV1" s="38"/>
-      <c r="BW1" s="38"/>
-      <c r="BX1" s="38"/>
-      <c r="BY1" s="38"/>
-      <c r="BZ1" s="38"/>
-      <c r="CA1" s="38"/>
-      <c r="CB1" s="38"/>
-      <c r="CC1" s="38"/>
-      <c r="CD1" s="38"/>
-      <c r="CE1" s="38"/>
-      <c r="CF1" s="38"/>
-      <c r="CG1" s="38"/>
-      <c r="CH1" s="38"/>
-      <c r="CI1" s="38"/>
-      <c r="CJ1" s="38"/>
-      <c r="CK1" s="38"/>
-      <c r="CL1" s="38"/>
-      <c r="CM1" s="38"/>
-      <c r="CN1" s="38"/>
-      <c r="CO1" s="38"/>
-      <c r="CP1" s="38"/>
-      <c r="CQ1" s="38"/>
-      <c r="CR1" s="38"/>
-      <c r="CS1" s="38"/>
-      <c r="CT1" s="38"/>
-      <c r="CU1" s="38"/>
-      <c r="CV1" s="38"/>
-      <c r="CW1" s="38"/>
-      <c r="CX1" s="38"/>
-      <c r="CY1" s="38"/>
-      <c r="CZ1" s="38"/>
-      <c r="DA1" s="38"/>
-      <c r="DB1" s="38"/>
-      <c r="DC1" s="38"/>
-      <c r="DD1" s="38"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="36"/>
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="36"/>
+      <c r="AO1" s="36"/>
+      <c r="AP1" s="36"/>
+      <c r="AQ1" s="36"/>
+      <c r="AR1" s="36"/>
+      <c r="AS1" s="36"/>
+      <c r="AT1" s="36"/>
+      <c r="AU1" s="36"/>
+      <c r="AV1" s="36"/>
+      <c r="AW1" s="36"/>
+      <c r="AX1" s="36"/>
+      <c r="AY1" s="36"/>
+      <c r="AZ1" s="36"/>
+      <c r="BA1" s="36"/>
+      <c r="BB1" s="36"/>
+      <c r="BC1" s="36"/>
+      <c r="BD1" s="36"/>
+      <c r="BE1" s="36"/>
+      <c r="BF1" s="36"/>
+      <c r="BG1" s="36"/>
+      <c r="BH1" s="36"/>
+      <c r="BI1" s="36"/>
+      <c r="BJ1" s="36"/>
+      <c r="BK1" s="36"/>
+      <c r="BL1" s="36"/>
+      <c r="BM1" s="36"/>
+      <c r="BN1" s="36"/>
+      <c r="BO1" s="36"/>
+      <c r="BP1" s="36"/>
+      <c r="BQ1" s="36"/>
+      <c r="BR1" s="36"/>
+      <c r="BS1" s="36"/>
+      <c r="BT1" s="36"/>
+      <c r="BU1" s="36"/>
+      <c r="BV1" s="36"/>
+      <c r="BW1" s="36"/>
+      <c r="BX1" s="36"/>
+      <c r="BY1" s="36"/>
+      <c r="BZ1" s="36"/>
+      <c r="CA1" s="36"/>
+      <c r="CB1" s="36"/>
+      <c r="CC1" s="36"/>
+      <c r="CD1" s="36"/>
+      <c r="CE1" s="36"/>
+      <c r="CF1" s="36"/>
+      <c r="CG1" s="36"/>
+      <c r="CH1" s="36"/>
+      <c r="CI1" s="36"/>
+      <c r="CJ1" s="36"/>
+      <c r="CK1" s="36"/>
+      <c r="CL1" s="36"/>
+      <c r="CM1" s="36"/>
+      <c r="CN1" s="36"/>
+      <c r="CO1" s="36"/>
+      <c r="CP1" s="36"/>
+      <c r="CQ1" s="36"/>
+      <c r="CR1" s="36"/>
+      <c r="CS1" s="36"/>
+      <c r="CT1" s="36"/>
+      <c r="CU1" s="36"/>
+      <c r="CV1" s="36"/>
+      <c r="CW1" s="36"/>
+      <c r="CX1" s="36"/>
+      <c r="CY1" s="36"/>
+      <c r="CZ1" s="36"/>
+      <c r="DA1" s="36"/>
+      <c r="DB1" s="36"/>
+      <c r="DC1" s="36"/>
+      <c r="DD1" s="36"/>
     </row>
-    <row r="3" spans="1:114" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+    <row r="3" spans="1:114" ht="73.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="30" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1040,7 +1078,7 @@
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="26">
+      <c r="I3" s="24">
         <v>45246</v>
       </c>
       <c r="J3" s="6">
@@ -1359,8 +1397,8 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="4" spans="1:114" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+    <row r="4" spans="1:114" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="31" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -1487,8 +1525,8 @@
       <c r="DI4" s="12"/>
       <c r="DJ4" s="12"/>
     </row>
-    <row r="5" spans="1:114" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+    <row r="5" spans="1:114" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="31" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -1615,8 +1653,8 @@
       <c r="DI5" s="12"/>
       <c r="DJ5" s="12"/>
     </row>
-    <row r="6" spans="1:114" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+    <row r="6" spans="1:114" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="31" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1743,8 +1781,8 @@
       <c r="DI6" s="12"/>
       <c r="DJ6" s="12"/>
     </row>
-    <row r="7" spans="1:114" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+    <row r="7" spans="1:114" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="31" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -1871,8 +1909,8 @@
       <c r="DI7" s="12"/>
       <c r="DJ7" s="12"/>
     </row>
-    <row r="8" spans="1:114" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+    <row r="8" spans="1:114" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1999,23 +2037,23 @@
       <c r="DI8" s="12"/>
       <c r="DJ8" s="12"/>
     </row>
-    <row r="9" spans="1:114" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+    <row r="9" spans="1:114" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="17">
         <v>100</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="19">
         <v>45265</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="20">
         <v>0.25</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="19">
         <v>45265</v>
       </c>
       <c r="G9" s="5"/>
@@ -2127,8 +2165,8 @@
       <c r="DI9" s="12"/>
       <c r="DJ9" s="12"/>
     </row>
-    <row r="10" spans="1:114" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
+    <row r="10" spans="1:114" ht="36" x14ac:dyDescent="0.3">
+      <c r="A10" s="31" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -2255,8 +2293,8 @@
       <c r="DI10" s="12"/>
       <c r="DJ10" s="12"/>
     </row>
-    <row r="11" spans="1:114" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
+    <row r="11" spans="1:114" ht="36" x14ac:dyDescent="0.3">
+      <c r="A11" s="31" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -2383,8 +2421,8 @@
       <c r="DI11" s="12"/>
       <c r="DJ11" s="12"/>
     </row>
-    <row r="12" spans="1:114" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
+    <row r="12" spans="1:114" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="31" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -2511,8 +2549,8 @@
       <c r="DI12" s="12"/>
       <c r="DJ12" s="12"/>
     </row>
-    <row r="13" spans="1:114" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
+    <row r="13" spans="1:114" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="31" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -2639,8 +2677,8 @@
       <c r="DI13" s="12"/>
       <c r="DJ13" s="12"/>
     </row>
-    <row r="14" spans="1:114" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
+    <row r="14" spans="1:114" ht="36" x14ac:dyDescent="0.3">
+      <c r="A14" s="31" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -2767,8 +2805,8 @@
       <c r="DI14" s="12"/>
       <c r="DJ14" s="12"/>
     </row>
-    <row r="15" spans="1:114" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
+    <row r="15" spans="1:114" ht="36" x14ac:dyDescent="0.3">
+      <c r="A15" s="31" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -2895,8 +2933,8 @@
       <c r="DI15" s="12"/>
       <c r="DJ15" s="12"/>
     </row>
-    <row r="16" spans="1:114" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="33" t="s">
+    <row r="16" spans="1:114" ht="36" x14ac:dyDescent="0.3">
+      <c r="A16" s="31" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -3023,23 +3061,23 @@
       <c r="DI16" s="12"/>
       <c r="DJ16" s="12"/>
     </row>
-    <row r="17" spans="1:114" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="35" t="s">
+    <row r="17" spans="1:114" ht="36" x14ac:dyDescent="0.3">
+      <c r="A17" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="15">
         <v>100</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="16">
         <v>45309</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="13">
         <v>1</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="16">
         <v>45309</v>
       </c>
       <c r="G17" s="5"/>
@@ -3151,8 +3189,8 @@
       <c r="DI17" s="12"/>
       <c r="DJ17" s="12"/>
     </row>
-    <row r="18" spans="1:114" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
+    <row r="18" spans="1:114" ht="36" x14ac:dyDescent="0.3">
+      <c r="A18" s="31" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -3279,23 +3317,23 @@
       <c r="DI18" s="12"/>
       <c r="DJ18" s="12"/>
     </row>
-    <row r="19" spans="1:114" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
+    <row r="19" spans="1:114" ht="36" x14ac:dyDescent="0.3">
+      <c r="A19" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="27">
         <v>100</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D19" s="28">
         <v>45315</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="25">
         <v>0.25</v>
       </c>
-      <c r="F19" s="30">
+      <c r="F19" s="28">
         <v>45315</v>
       </c>
       <c r="G19" s="5"/>
@@ -3407,23 +3445,23 @@
       <c r="DI19" s="12"/>
       <c r="DJ19" s="12"/>
     </row>
-    <row r="20" spans="1:114" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
+    <row r="20" spans="1:114" ht="36" x14ac:dyDescent="0.3">
+      <c r="A20" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="29">
+      <c r="C20" s="27">
         <v>100</v>
       </c>
-      <c r="D20" s="30">
+      <c r="D20" s="28">
         <v>45316</v>
       </c>
       <c r="E20" s="12">
         <v>0.5</v>
       </c>
-      <c r="F20" s="30">
+      <c r="F20" s="28">
         <v>45316</v>
       </c>
       <c r="G20" s="5"/>
@@ -3535,8 +3573,8 @@
       <c r="DI20" s="12"/>
       <c r="DJ20" s="12"/>
     </row>
-    <row r="21" spans="1:114" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="33" t="s">
+    <row r="21" spans="1:114" ht="36" x14ac:dyDescent="0.3">
+      <c r="A21" s="31" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="8" t="s">
@@ -3663,8 +3701,8 @@
       <c r="DI21" s="12"/>
       <c r="DJ21" s="12"/>
     </row>
-    <row r="22" spans="1:114" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="33" t="s">
+    <row r="22" spans="1:114" ht="36" x14ac:dyDescent="0.3">
+      <c r="A22" s="31" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -3791,8 +3829,8 @@
       <c r="DI22" s="12"/>
       <c r="DJ22" s="12"/>
     </row>
-    <row r="23" spans="1:114" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="33" t="s">
+    <row r="23" spans="1:114" ht="36" x14ac:dyDescent="0.3">
+      <c r="A23" s="31" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="8" t="s">
@@ -3919,8 +3957,8 @@
       <c r="DI23" s="11"/>
       <c r="DJ23" s="12"/>
     </row>
-    <row r="24" spans="1:114" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="33" t="s">
+    <row r="24" spans="1:114" ht="36" x14ac:dyDescent="0.3">
+      <c r="A24" s="31" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -4047,8 +4085,8 @@
       <c r="DI24" s="11"/>
       <c r="DJ24" s="12"/>
     </row>
-    <row r="25" spans="1:114" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="33" t="s">
+    <row r="25" spans="1:114" ht="36" x14ac:dyDescent="0.3">
+      <c r="A25" s="31" t="s">
         <v>16</v>
       </c>
       <c r="B25" s="8" t="s">
@@ -4175,8 +4213,8 @@
       <c r="DI25" s="11"/>
       <c r="DJ25" s="12"/>
     </row>
-    <row r="26" spans="1:114" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="33" t="s">
+    <row r="26" spans="1:114" ht="36" x14ac:dyDescent="0.3">
+      <c r="A26" s="31" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -4303,8 +4341,8 @@
       <c r="DI26" s="11"/>
       <c r="DJ26" s="12"/>
     </row>
-    <row r="27" spans="1:114" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="33" t="s">
+    <row r="27" spans="1:114" ht="36" x14ac:dyDescent="0.3">
+      <c r="A27" s="31" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -4431,8 +4469,8 @@
       <c r="DI27" s="11"/>
       <c r="DJ27" s="12"/>
     </row>
-    <row r="28" spans="1:114" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="37" t="s">
+    <row r="28" spans="1:114" ht="36" x14ac:dyDescent="0.3">
+      <c r="A28" s="35" t="s">
         <v>32</v>
       </c>
       <c r="B28" s="8" t="s">
@@ -4559,23 +4597,23 @@
       <c r="DI28" s="11"/>
       <c r="DJ28" s="12"/>
     </row>
-    <row r="29" spans="1:114" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="35" t="s">
+    <row r="29" spans="1:114" ht="36" x14ac:dyDescent="0.3">
+      <c r="A29" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29" s="15">
         <v>100</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D29" s="16">
         <v>45337</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="13">
         <v>0.5</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F29" s="16">
         <v>45337</v>
       </c>
       <c r="G29" s="5"/>
@@ -4687,21 +4725,21 @@
       <c r="DI29" s="11"/>
       <c r="DJ29" s="12"/>
     </row>
-    <row r="30" spans="1:114" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="33" t="s">
+    <row r="30" spans="1:114" ht="36" x14ac:dyDescent="0.3">
+      <c r="A30" s="31" t="s">
         <v>33</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C30" s="12">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D30" s="9">
         <v>45337</v>
       </c>
       <c r="E30" s="12">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F30" s="9">
         <v>45339</v>
@@ -4813,23 +4851,23 @@
       <c r="DG30" s="11"/>
       <c r="DH30" s="11"/>
       <c r="DI30" s="11"/>
-      <c r="DJ30" s="12"/>
+      <c r="DJ30" s="11"/>
     </row>
-    <row r="31" spans="1:114" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="33" t="s">
+    <row r="31" spans="1:114" ht="36" x14ac:dyDescent="0.3">
+      <c r="A31" s="31" t="s">
         <v>34</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="12">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D31" s="9">
         <v>45339</v>
       </c>
       <c r="E31" s="12">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F31" s="9">
         <v>45341</v>
@@ -4941,11 +4979,11 @@
       <c r="DG31" s="11"/>
       <c r="DH31" s="11"/>
       <c r="DI31" s="11"/>
-      <c r="DJ31" s="12"/>
+      <c r="DJ31" s="11"/>
     </row>
-    <row r="32" spans="1:114" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="37" t="s">
-        <v>22</v>
+    <row r="32" spans="1:114" ht="36" x14ac:dyDescent="0.3">
+      <c r="A32" s="31" t="s">
+        <v>16</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>9</v>
@@ -5064,16 +5102,16 @@
       <c r="DB32" s="11"/>
       <c r="DC32" s="11"/>
       <c r="DD32" s="11"/>
-      <c r="DE32" s="12"/>
-      <c r="DF32" s="12"/>
-      <c r="DG32" s="12"/>
-      <c r="DH32" s="12"/>
-      <c r="DI32" s="12"/>
-      <c r="DJ32" s="12"/>
+      <c r="DE32" s="11"/>
+      <c r="DF32" s="11"/>
+      <c r="DG32" s="11"/>
+      <c r="DH32" s="11"/>
+      <c r="DI32" s="11"/>
+      <c r="DJ32" s="11"/>
     </row>
-    <row r="33" spans="1:114" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="33" t="s">
-        <v>16</v>
+    <row r="33" spans="1:114" ht="36" x14ac:dyDescent="0.3">
+      <c r="A33" s="31" t="s">
+        <v>36</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>9</v>
@@ -5084,7 +5122,7 @@
       <c r="D33" s="9">
         <v>45341</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33" s="7">
         <v>0</v>
       </c>
       <c r="F33" s="9">
@@ -5192,16 +5230,16 @@
       <c r="DB33" s="11"/>
       <c r="DC33" s="11"/>
       <c r="DD33" s="11"/>
-      <c r="DE33" s="12"/>
-      <c r="DF33" s="12"/>
-      <c r="DG33" s="12"/>
-      <c r="DH33" s="12"/>
-      <c r="DI33" s="12"/>
-      <c r="DJ33" s="12"/>
+      <c r="DE33" s="11"/>
+      <c r="DF33" s="11"/>
+      <c r="DG33" s="11"/>
+      <c r="DH33" s="11"/>
+      <c r="DI33" s="11"/>
+      <c r="DJ33" s="11"/>
     </row>
-    <row r="34" spans="1:114" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="33" t="s">
-        <v>36</v>
+    <row r="34" spans="1:114" ht="36" x14ac:dyDescent="0.3">
+      <c r="A34" s="31" t="s">
+        <v>23</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>9</v>
@@ -5210,13 +5248,13 @@
         <v>0</v>
       </c>
       <c r="D34" s="9">
-        <v>45341</v>
+        <v>45342</v>
       </c>
       <c r="E34" s="7">
         <v>0</v>
       </c>
       <c r="F34" s="9">
-        <v>45341</v>
+        <v>45342</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
@@ -5320,16 +5358,16 @@
       <c r="DB34" s="11"/>
       <c r="DC34" s="11"/>
       <c r="DD34" s="11"/>
-      <c r="DE34" s="12"/>
-      <c r="DF34" s="12"/>
-      <c r="DG34" s="12"/>
-      <c r="DH34" s="12"/>
-      <c r="DI34" s="12"/>
-      <c r="DJ34" s="12"/>
+      <c r="DE34" s="11"/>
+      <c r="DF34" s="11"/>
+      <c r="DG34" s="11"/>
+      <c r="DH34" s="11"/>
+      <c r="DI34" s="11"/>
+      <c r="DJ34" s="11"/>
     </row>
-    <row r="35" spans="1:114" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="33" t="s">
-        <v>23</v>
+    <row r="35" spans="1:114" ht="36" x14ac:dyDescent="0.3">
+      <c r="A35" s="35" t="s">
+        <v>22</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>9</v>
@@ -5338,13 +5376,13 @@
         <v>0</v>
       </c>
       <c r="D35" s="9">
-        <v>45342</v>
-      </c>
-      <c r="E35" s="7">
+        <v>45343</v>
+      </c>
+      <c r="E35" s="12">
         <v>0</v>
       </c>
       <c r="F35" s="9">
-        <v>45342</v>
+        <v>45343</v>
       </c>
       <c r="I35" s="11"/>
       <c r="J35" s="11"/>
@@ -5444,32 +5482,32 @@
       <c r="CZ35" s="11"/>
       <c r="DA35" s="11"/>
       <c r="DB35" s="11"/>
-      <c r="DC35" s="11"/>
+      <c r="DC35" s="37"/>
       <c r="DD35" s="11"/>
-      <c r="DE35" s="12"/>
-      <c r="DF35" s="12"/>
-      <c r="DG35" s="12"/>
-      <c r="DH35" s="12"/>
-      <c r="DI35" s="12"/>
-      <c r="DJ35" s="12"/>
+      <c r="DE35" s="11"/>
+      <c r="DF35" s="11"/>
+      <c r="DG35" s="11"/>
+      <c r="DH35" s="11"/>
+      <c r="DI35" s="11"/>
+      <c r="DJ35" s="11"/>
     </row>
-    <row r="36" spans="1:114" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="35" t="s">
+    <row r="36" spans="1:114" ht="36" x14ac:dyDescent="0.3">
+      <c r="A36" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="16">
+      <c r="C36" s="15">
         <v>0</v>
       </c>
-      <c r="D36" s="17">
-        <v>45342</v>
-      </c>
-      <c r="E36" s="14">
+      <c r="D36" s="16">
+        <v>45344</v>
+      </c>
+      <c r="E36" s="13">
         <v>0</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F36" s="16">
         <v>45342</v>
       </c>
       <c r="I36" s="11"/>
@@ -5572,22 +5610,22 @@
       <c r="DB36" s="11"/>
       <c r="DC36" s="11"/>
       <c r="DD36" s="11"/>
-      <c r="DE36" s="12"/>
-      <c r="DF36" s="12"/>
-      <c r="DG36" s="12"/>
-      <c r="DH36" s="12"/>
-      <c r="DI36" s="12"/>
-      <c r="DJ36" s="12"/>
+      <c r="DE36" s="11"/>
+      <c r="DF36" s="11"/>
+      <c r="DG36" s="11"/>
+      <c r="DH36" s="11"/>
+      <c r="DI36" s="11"/>
+      <c r="DJ36" s="11"/>
     </row>
-    <row r="37" spans="1:114" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="37"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="22"/>
+    <row r="37" spans="1:114" ht="18" x14ac:dyDescent="0.3">
+      <c r="A37" s="33"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="16"/>
       <c r="E37" s="13"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
@@ -5688,16 +5726,16 @@
       <c r="DB37" s="11"/>
       <c r="DC37" s="11"/>
       <c r="DD37" s="11"/>
-      <c r="DE37" s="12"/>
-      <c r="DF37" s="12"/>
-      <c r="DG37" s="12"/>
-      <c r="DH37" s="12"/>
-      <c r="DI37" s="12"/>
-      <c r="DJ37" s="12"/>
+      <c r="DE37" s="11"/>
+      <c r="DF37" s="11"/>
+      <c r="DG37" s="11"/>
+      <c r="DH37" s="11"/>
+      <c r="DI37" s="11"/>
+      <c r="DJ37" s="11"/>
     </row>
-    <row r="38" spans="1:114" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D38" s="23"/>
-      <c r="F38" s="23"/>
+    <row r="38" spans="1:114" ht="18" x14ac:dyDescent="0.3">
+      <c r="D38" s="21"/>
+      <c r="F38" s="21"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
@@ -5798,14 +5836,14 @@
       <c r="DB38" s="5"/>
       <c r="DC38" s="5"/>
       <c r="DD38" s="5"/>
-      <c r="DE38" s="24"/>
-      <c r="DF38" s="24"/>
-      <c r="DG38" s="24"/>
-      <c r="DH38" s="24"/>
-      <c r="DI38" s="24"/>
-      <c r="DJ38" s="24"/>
+      <c r="DE38" s="22"/>
+      <c r="DF38" s="22"/>
+      <c r="DG38" s="22"/>
+      <c r="DH38" s="22"/>
+      <c r="DI38" s="22"/>
+      <c r="DJ38" s="22"/>
     </row>
-    <row r="39" spans="1:114" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:114" ht="18" x14ac:dyDescent="0.3">
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
@@ -5906,14 +5944,14 @@
       <c r="DB39" s="5"/>
       <c r="DC39" s="5"/>
       <c r="DD39" s="5"/>
-      <c r="DE39" s="24"/>
-      <c r="DF39" s="24"/>
-      <c r="DG39" s="24"/>
-      <c r="DH39" s="24"/>
-      <c r="DI39" s="24"/>
-      <c r="DJ39" s="24"/>
+      <c r="DE39" s="22"/>
+      <c r="DF39" s="22"/>
+      <c r="DG39" s="22"/>
+      <c r="DH39" s="22"/>
+      <c r="DI39" s="22"/>
+      <c r="DJ39" s="22"/>
     </row>
-    <row r="40" spans="1:114" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:114" ht="18" x14ac:dyDescent="0.3">
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
@@ -6014,14 +6052,14 @@
       <c r="DB40" s="5"/>
       <c r="DC40" s="5"/>
       <c r="DD40" s="5"/>
-      <c r="DE40" s="24"/>
-      <c r="DF40" s="24"/>
-      <c r="DG40" s="24"/>
-      <c r="DH40" s="24"/>
-      <c r="DI40" s="24"/>
-      <c r="DJ40" s="24"/>
+      <c r="DE40" s="22"/>
+      <c r="DF40" s="22"/>
+      <c r="DG40" s="22"/>
+      <c r="DH40" s="22"/>
+      <c r="DI40" s="22"/>
+      <c r="DJ40" s="22"/>
     </row>
-    <row r="41" spans="1:114" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:114" ht="18" x14ac:dyDescent="0.3">
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
@@ -6122,14 +6160,14 @@
       <c r="DB41" s="5"/>
       <c r="DC41" s="5"/>
       <c r="DD41" s="5"/>
-      <c r="DE41" s="24"/>
-      <c r="DF41" s="24"/>
-      <c r="DG41" s="24"/>
-      <c r="DH41" s="24"/>
-      <c r="DI41" s="24"/>
-      <c r="DJ41" s="24"/>
+      <c r="DE41" s="22"/>
+      <c r="DF41" s="22"/>
+      <c r="DG41" s="22"/>
+      <c r="DH41" s="22"/>
+      <c r="DI41" s="22"/>
+      <c r="DJ41" s="22"/>
     </row>
-    <row r="42" spans="1:114" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:114" ht="18" x14ac:dyDescent="0.3">
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
@@ -6230,165 +6268,165 @@
       <c r="DB42" s="5"/>
       <c r="DC42" s="5"/>
       <c r="DD42" s="5"/>
-      <c r="DE42" s="24"/>
-      <c r="DF42" s="24"/>
-      <c r="DG42" s="24"/>
-      <c r="DH42" s="24"/>
-      <c r="DI42" s="24"/>
-      <c r="DJ42" s="24"/>
+      <c r="DE42" s="22"/>
+      <c r="DF42" s="22"/>
+      <c r="DG42" s="22"/>
+      <c r="DH42" s="22"/>
+      <c r="DI42" s="22"/>
+      <c r="DJ42" s="22"/>
+    </row>
+    <row r="76" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E76" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I1:DD1"/>
   </mergeCells>
-  <conditionalFormatting sqref="I4:W4 CQ23:DC25 DF23:DI25 I30:AE31 CB30:CN31 CQ30:CQ31 DC30:DC31 DF30:DI31 CB24:CP25 I37:BQ37 I39:DD42">
-    <cfRule type="expression" dxfId="29" priority="24">
+  <conditionalFormatting sqref="I4:W4 CQ23:DC25 DF23:DI25 CB24:CP25 I30:AE31 CB30:CN31 I37:BQ37 I39:DD42">
+    <cfRule type="expression" dxfId="33" priority="28">
       <formula>AND(I$3&gt;=$D4,I$3&lt;=$F4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:W16">
-    <cfRule type="expression" dxfId="28" priority="10">
+    <cfRule type="expression" dxfId="32" priority="14">
       <formula>AND(I$3&gt;=$D16,I$3&lt;=$F16)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:AA5">
-    <cfRule type="expression" dxfId="27" priority="23">
+    <cfRule type="expression" dxfId="31" priority="27">
       <formula>AND(I$3&gt;=$D5,I$3&lt;=$F5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:AA17">
-    <cfRule type="expression" dxfId="26" priority="9">
+    <cfRule type="expression" dxfId="30" priority="13">
       <formula>AND(I$3&gt;=$D17,I$3&lt;=$F17)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:AE7">
-    <cfRule type="expression" dxfId="25" priority="22">
+    <cfRule type="expression" dxfId="29" priority="26">
       <formula>AND(I$3&gt;=$D6,I$3&lt;=$F6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:AE19">
-    <cfRule type="expression" dxfId="24" priority="8">
+    <cfRule type="expression" dxfId="28" priority="12">
       <formula>AND(I$3&gt;=$D18,I$3&lt;=$F18)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:BM8">
-    <cfRule type="expression" dxfId="23" priority="21">
+    <cfRule type="expression" dxfId="27" priority="25">
       <formula>AND(I$3&gt;=$D8,I$3&lt;=$F8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:BM20">
-    <cfRule type="expression" dxfId="22" priority="7">
+    <cfRule type="expression" dxfId="26" priority="11">
       <formula>AND(I$3&gt;=$D20,I$3&lt;=$F20)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32:BM32">
-    <cfRule type="expression" dxfId="21" priority="72">
+    <cfRule type="expression" dxfId="25" priority="76">
       <formula>AND(I$3&gt;=#REF!,I$3&lt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:BP15">
-    <cfRule type="expression" dxfId="20" priority="19">
+    <cfRule type="expression" dxfId="24" priority="23">
       <formula>AND(I$3&gt;=$D14,I$3&lt;=$F14)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:BS22 CI21:DD22 BR24:CA24 I24:BQ25">
-    <cfRule type="expression" dxfId="19" priority="11">
+    <cfRule type="expression" dxfId="23" priority="15">
       <formula>AND(I$3&gt;=$D21,I$3&lt;=$F21)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23:CN23">
-    <cfRule type="expression" dxfId="18" priority="2">
+    <cfRule type="expression" dxfId="22" priority="6">
       <formula>AND(I$3&gt;=$D23,I$3&lt;=$F23)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:DD11 BR12:DD12 I12:BQ13">
-    <cfRule type="expression" dxfId="17" priority="33">
+    <cfRule type="expression" dxfId="21" priority="37">
       <formula>AND(I$3&gt;=$D9,I$3&lt;=$F9)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I38:DD38">
-    <cfRule type="expression" dxfId="16" priority="39">
+  <conditionalFormatting sqref="I35:CO36">
+    <cfRule type="expression" dxfId="20" priority="122">
       <formula>AND(I$3&gt;=#REF!,I$3&lt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DE24:DE26 BR25:CA26 I29:AA29 CB29:CN29 CQ29 DC29 DF29:DI29">
-    <cfRule type="expression" dxfId="15" priority="70">
-      <formula>AND(I$3&gt;=$D27,I$3&lt;=$F27)</formula>
+  <conditionalFormatting sqref="I38:DD38">
+    <cfRule type="expression" dxfId="19" priority="43">
+      <formula>AND(I$3&gt;=#REF!,I$3&lt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X4:DD4 AF6:DD6 BQ14 CQ26:DC26 DF26:DI28 CQ27:CQ28 DC27:DC28 CB28:CN28 CO29:CO30 DD29:DD30 AF30:CA30 I28:W28 I26:BP27 CB26:CP27 DD23:DD24 CR27:DB32">
-    <cfRule type="expression" dxfId="14" priority="51">
+  <conditionalFormatting sqref="X28:CA28 CO28 DD28 AF31:CA31">
+    <cfRule type="expression" dxfId="18" priority="80">
+      <formula>AND(X$3&gt;=$D32,X$3&lt;=$F32)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X4:DD4 AF6:DD6 BQ14 DD23:DD24 CQ26:DC26 I26:BP27 CB26:CP27 DF26:DI28 CQ27:CQ28 DC27:DC28 CR27:DB29 I28:W28 CB28:CN28 CO29:CO30 DD29 AF30:CA30 CP30:DJ37">
+    <cfRule type="expression" dxfId="17" priority="55">
       <formula>AND(I$3&gt;=$D5,I$3&lt;=$F5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X16:DD16 AF18:BS18 CI18:DD18">
-    <cfRule type="expression" dxfId="13" priority="13">
+    <cfRule type="expression" dxfId="16" priority="17">
       <formula>AND(X$3&gt;=$D17,X$3&lt;=$F17)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB5:DD5">
-    <cfRule type="expression" dxfId="12" priority="49">
+    <cfRule type="expression" dxfId="15" priority="53">
       <formula>AND(AB$3&gt;=#REF!,AB$3&lt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB17:DD17 AB29:CA29">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="14" priority="16">
       <formula>AND(AB$3&gt;=#REF!,AB$3&lt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF7:DD7 BR13:DD14 BQ15:DD15 CH18:CH22 AF19:BS19 CI19:DD19 CP23 DD25:DD27 CP28:CP29 DE28:DE29 BQ26 DE23 I33:DD34 BR37:DD37">
-    <cfRule type="expression" dxfId="10" priority="60">
+  <conditionalFormatting sqref="AF7:DD7 BR13:DD14 BQ15:DD15 CH18:CH22 AF19:BS19 CI19:DD19 CP23 DE23 DD25:DD27 BQ26 CP28:CP29 DE28:DE29 BR37:CO37 I33:CO34">
+    <cfRule type="expression" dxfId="13" priority="64">
       <formula>AND(I$3&gt;=$D9,I$3&lt;=$F9)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BN20:BS20 CI20:DD20 BN32:CQ32 DC32:DD32">
-    <cfRule type="expression" dxfId="9" priority="14">
+  <conditionalFormatting sqref="BN20:BS20 CI20:DD20 BN32:CO32">
+    <cfRule type="expression" dxfId="12" priority="18">
       <formula>AND(BN$3&gt;=$D18,BN$3&lt;=$F18)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BN8:DD8">
-    <cfRule type="expression" dxfId="8" priority="59">
+    <cfRule type="expression" dxfId="11" priority="63">
       <formula>AND(BN$3&gt;=$D6,BN$3&lt;=$F6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X28:CA28 CO28 DD28 AF31:CA31 CP31 DE31">
-    <cfRule type="expression" dxfId="7" priority="76">
-      <formula>AND(X$3&gt;=$D32,X$3&lt;=$F32)</formula>
+  <conditionalFormatting sqref="BQ27:CA27 DE27">
+    <cfRule type="expression" dxfId="10" priority="157">
+      <formula>AND(BQ$3&gt;=$D32,BQ$3&lt;=$F32)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT18:CF22">
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="9" priority="8">
       <formula>AND(BT$3&gt;=$D18,BT$3&lt;=$F18)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CG18:CG22">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>AND(CG$3&gt;=$D19,CG$3&lt;=$F19)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CO23">
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>AND(CO$3&gt;=$D24,CO$3&lt;=$F24)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CO31 DD31">
-    <cfRule type="expression" dxfId="3" priority="87">
+  <conditionalFormatting sqref="CO31">
+    <cfRule type="expression" dxfId="6" priority="91">
       <formula>AND(CO$3&gt;=#REF!,CO$3&lt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CP30 DE30">
-    <cfRule type="expression" dxfId="2" priority="67">
-      <formula>AND(CP$3&gt;=#REF!,CP$3&lt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I35:DD36">
-    <cfRule type="expression" dxfId="1" priority="118">
-      <formula>AND(I$3&gt;=#REF!,I$3&lt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BQ27:CA27 DE27">
-    <cfRule type="expression" dxfId="0" priority="153">
-      <formula>AND(BQ$3&gt;=$D32,BQ$3&lt;=$F32)</formula>
+  <conditionalFormatting sqref="DE24:DE26 BR25:CA26 I29:AA29 CB29:CN29 CQ29 DC29 DF29:DI29">
+    <cfRule type="expression" dxfId="4" priority="74">
+      <formula>AND(I$3&gt;=$D27,I$3&lt;=$F27)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
